--- a/Assignments/hours-avg.xlsx
+++ b/Assignments/hours-avg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carl Bai\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/429c39f9d3297dc9/Documents/School Docs/CYSE 492/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64AF0906-54AD-4AB3-97E0-0DD98DB313FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B7042E0-F712-49B1-B747-B5843D061470}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18460" xr2:uid="{AB8E678A-07C6-4C3E-A180-F37AA26BE47E}"/>
+    <workbookView xWindow="3430" yWindow="4010" windowWidth="20520" windowHeight="13390" xr2:uid="{AB8E678A-07C6-4C3E-A180-F37AA26BE47E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -119,19 +119,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -153,12 +140,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -477,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC1D04D-A4A6-405F-AACA-B3D678B20B74}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -523,43 +509,43 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5">
         <v>10</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="5">
         <v>11</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>12</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="5">
         <v>13</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="5">
         <v>14</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -567,42 +553,42 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="C3" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2">
         <v>5</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>5</v>
       </c>
-      <c r="J3" s="3">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="5">
+      <c r="J3" s="2">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="4">
         <f>SUM(B3:K3)</f>
         <v>58</v>
       </c>
-      <c r="M3" s="5">
-        <v>9</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="M3" s="4">
+        <v>9</v>
+      </c>
+      <c r="N3" s="4">
         <f>L3/M3</f>
         <v>6.4444444444444446</v>
       </c>
@@ -611,86 +597,86 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="5">
+      <c r="C4" s="2">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="4">
         <f t="shared" ref="L4:L7" si="0">SUM(B4:K4)</f>
-        <v>56</v>
-      </c>
-      <c r="M4" s="5">
-        <v>9</v>
-      </c>
-      <c r="N4" s="5">
+        <v>57</v>
+      </c>
+      <c r="M4" s="4">
+        <v>9</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" ref="N4:N7" si="1">L4/M4</f>
-        <v>6.2222222222222223</v>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3">
-        <v>6</v>
-      </c>
-      <c r="J5" s="3">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="5">
+      <c r="F5" s="2">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="M5" s="5">
-        <v>9</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="M5" s="4">
+        <v>9</v>
+      </c>
+      <c r="N5" s="4">
         <f t="shared" si="1"/>
         <v>6.333333333333333</v>
       </c>
@@ -699,42 +685,42 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3">
-        <v>8</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="F6" s="2">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" s="3">
-        <v>8</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="5">
+      <c r="J6" s="2">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="M6" s="5">
-        <v>9</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="M6" s="4">
+        <v>9</v>
+      </c>
+      <c r="N6" s="4">
         <f t="shared" si="1"/>
         <v>6.333333333333333</v>
       </c>
@@ -743,42 +729,42 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
-        <v>7</v>
-      </c>
-      <c r="F7" s="4">
-        <v>6</v>
-      </c>
-      <c r="G7" s="4">
-        <v>6</v>
-      </c>
-      <c r="H7" s="4">
-        <v>7</v>
-      </c>
-      <c r="I7" s="4">
-        <v>6</v>
-      </c>
-      <c r="J7" s="4">
-        <v>9</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5">
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3">
+        <v>9</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="M7" s="5">
-        <v>9</v>
-      </c>
-      <c r="N7" s="5">
+      <c r="M7" s="4">
+        <v>9</v>
+      </c>
+      <c r="N7" s="4">
         <f t="shared" si="1"/>
         <v>6.5555555555555554</v>
       </c>
